--- a/tvd_s9.xlsx
+++ b/tvd_s9.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rcdb8f4af2f124edc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R41546167444248f4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -321,14 +321,14 @@
     <x:row r="6">
       <x:c r="A6" s="1" t="inlineStr">
         <x:is>
-          <x:t>Audit Number: 1005</x:t>
+          <x:t>Audit Number: 1178</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="2" t="inlineStr">
         <x:is>
-          <x:t>Date: 5/3/2020 Time: 12:22 PM</x:t>
+          <x:t>Date: 5/3/2020 Time: 1:15 PM</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -424,21 +424,21 @@
     <x:row r="18">
       <x:c r="A18" s="11" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : SM</x:t>
+          <x:t>Scenario (Time varying leak) : SM-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" s="12" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S9\SM</x:t>
+          <x:t>H2495_FRA\H2495\S9\EOBN\SM-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="13" t="inlineStr">
         <x:is>
-          <x:t>SM</x:t>
+          <x:t>SM-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4524,21 +4524,21 @@
     <x:row r="149">
       <x:c r="A149" s="16" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : ME</x:t>
+          <x:t>Scenario (Time varying leak) : ME-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="150">
       <x:c r="A150" s="17" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S9\ME</x:t>
+          <x:t>H2495_FRA\H2495\S9\ME\ME-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="151">
       <x:c r="A151" s="18" t="inlineStr">
         <x:is>
-          <x:t>ME</x:t>
+          <x:t>ME-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7824,21 +7824,21 @@
     <x:row r="255">
       <x:c r="A255" s="20" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : MA</x:t>
+          <x:t>Scenario (Time varying leak) : MA-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="256">
       <x:c r="A256" s="21" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S9\MA</x:t>
+          <x:t>H2495_FRA\H2495\S9\MA\MA-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="257">
       <x:c r="A257" s="22" t="inlineStr">
         <x:is>
-          <x:t>MA</x:t>
+          <x:t>MA-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -10292,21 +10292,21 @@
     <x:row r="335">
       <x:c r="A335" s="24" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : LA</x:t>
+          <x:t>Scenario (Time varying leak) : LA-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="336">
       <x:c r="A336" s="25" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S9\LA</x:t>
+          <x:t>H2495_FRA\H2495\S9\LA\LA-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="337">
       <x:c r="A337" s="26" t="inlineStr">
         <x:is>
-          <x:t>LA</x:t>
+          <x:t>LA-EOBN</x:t>
         </x:is>
       </x:c>
     </x:row>
